--- a/高考全国院校投档线-文件转换_数据清洗/江西/2024/院校招生专业组专业明细.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2024/院校招生专业组专业明细.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,105 +396,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>新疆第二医学院</v>
+        <v>广西大学</v>
       </c>
       <c r="B2" t="str">
-        <v>专业组（507）</v>
+        <v>专业组（501）</v>
       </c>
       <c r="C2" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
+        <v>首选物理，再选化学</v>
       </c>
       <c r="D2" t="str">
-        <v>麻醉学（五年）-1</v>
+        <v>土木工程-8, 材料科学与工程-6, 电气工程及其自动化-6, 计算机科学与技术-6, 水利水电工程-6, 环境工程-6, 化学工程与工艺-6, 动物科学-6, 物理学-6, 车辆工程-6, 化学类（化学、应用化学）-6, 植物生产类（农学、园艺、植物保护）-6, 轻工类（轻化工程、包装工程）-6, 电子科学与技术-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>新疆第二医学院</v>
+        <v>广西大学</v>
       </c>
       <c r="B3" t="str">
-        <v>专业组（506）</v>
+        <v>专业组（101）</v>
       </c>
       <c r="C3" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
+        <v>首选历史，再选不限</v>
       </c>
       <c r="D3" t="str">
-        <v>预防医学（五年）-1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>新疆第二医学院</v>
-      </c>
-      <c r="B4" t="str">
-        <v>专业组（505）</v>
-      </c>
-      <c r="C4" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
-      </c>
-      <c r="D4" t="str">
-        <v>护理学-1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>新疆第二医学院</v>
-      </c>
-      <c r="B5" t="str">
-        <v>专业组（504）</v>
-      </c>
-      <c r="C5" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>药学-1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>新疆第二医学院</v>
-      </c>
-      <c r="B6" t="str">
-        <v>专业组（503）</v>
-      </c>
-      <c r="C6" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
-      </c>
-      <c r="D6" t="str">
-        <v>中西医临床医学（五年）-1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>新疆第二医学院</v>
-      </c>
-      <c r="B7" t="str">
-        <v>专业组（502）</v>
-      </c>
-      <c r="C7" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
-      </c>
-      <c r="D7" t="str">
-        <v>口腔医学（五年）-1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>新疆第二医学院</v>
-      </c>
-      <c r="B8" t="str">
-        <v>专业组（501）</v>
-      </c>
-      <c r="C8" t="str">
-        <v>首选物理，再选化学、生物(2科必选)</v>
-      </c>
-      <c r="D8" t="str">
-        <v>临床医学（五年）-4</v>
+        <v>哲学-6, 法学-6, 汉语国际教育-6, 日语-6, 外国语言文学类（英语、翻译）（外语语种要求：英语）-6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/高考全国院校投档线-文件转换_数据清洗/江西/2024/院校招生专业组专业明细.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2024/院校招生专业组专业明细.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,35 +396,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>广西大学</v>
+        <v>河北医科大学</v>
       </c>
       <c r="B2" t="str">
-        <v>专业组（501）</v>
+        <v>专业组（503）</v>
       </c>
       <c r="C2" t="str">
-        <v>首选物理，再选化学</v>
+        <v>首选物理，再选生物</v>
       </c>
       <c r="D2" t="str">
-        <v>土木工程-8, 材料科学与工程-6, 电气工程及其自动化-6, 计算机科学与技术-6, 水利水电工程-6, 环境工程-6, 化学工程与工艺-6, 动物科学-6, 物理学-6, 车辆工程-6, 化学类（化学、应用化学）-6, 植物生产类（农学、园艺、植物保护）-6, 轻工类（轻化工程、包装工程）-6, 电子科学与技术-5</v>
+        <v>护理学类（护理学、助产学）-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>广西大学</v>
+        <v>河北医科大学</v>
       </c>
       <c r="B3" t="str">
-        <v>专业组（101）</v>
+        <v>专业组（502）</v>
       </c>
       <c r="C3" t="str">
-        <v>首选历史，再选不限</v>
+        <v>首选物理，再选化学、生物(2科必选)</v>
       </c>
       <c r="D3" t="str">
-        <v>哲学-6, 法学-6, 汉语国际教育-6, 日语-6, 外国语言文学类（英语、翻译）（外语语种要求：英语）-6</v>
+        <v>临床医学（五年）-8, 医学影像学（五年）-2, 精神医学（五年）-2, 基础医学（五年）-2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>河北医科大学</v>
+      </c>
+      <c r="B4" t="str">
+        <v>专业组（501）</v>
+      </c>
+      <c r="C4" t="str">
+        <v>首选物理，再选化学</v>
+      </c>
+      <c r="D4" t="str">
+        <v>医学影像技术-3, 法医学（五年）-2, 公共卫生与预防医学类（预防医学、妇幼保健医学）（五年）-2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>